--- a/DEV/Microservicios-Product-app/Categories-cotroller/US3_CP_DEV_1.xlsx
+++ b/DEV/Microservicios-Product-app/Categories-cotroller/US3_CP_DEV_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-Product-app\Categories-cotroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA95C14-2065-42E1-AF8D-31B3A463E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C08478-E633-47DC-A16E-6C68CA842213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DEV/Microservicios-Product-app/Categories-cotroller/US3_CP_DEV_1.xlsx
+++ b/DEV/Microservicios-Product-app/Categories-cotroller/US3_CP_DEV_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-Product-app\Categories-cotroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C08478-E633-47DC-A16E-6C68CA842213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542BD21-6452-4118-9B38-626C1EA9E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEFDFD0-32E2-4D6C-ACEB-3E52EFAD76E5}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DEV/Microservicios-Product-app/Categories-cotroller/US3_CP_DEV_1.xlsx
+++ b/DEV/Microservicios-Product-app/Categories-cotroller/US3_CP_DEV_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-Product-app\Categories-cotroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542BD21-6452-4118-9B38-626C1EA9E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437713AE-0279-4150-8730-74EC4A50CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Sprint</t>
   </si>
@@ -161,9 +161,6 @@
     <t>FALLO</t>
   </si>
   <si>
-    <t>Se muestra la actualizacion de registros de categoria en la BD, al consumir el servicio PUT. "categories/update"</t>
-  </si>
-  <si>
     <t>Eliminar Categoría</t>
   </si>
   <si>
@@ -173,12 +170,6 @@
     <t>Se debe mostrar la eliminacion de registro de categoria en la BD, al consumir el servicio DELETE. "categories/delete/{id}"</t>
   </si>
   <si>
-    <t>Se muestra la eliminacion de registro de categoria en la BD, al consumir el servicio DELETE. "categories/delete/{id}"</t>
-  </si>
-  <si>
-    <t>categories/list/{store}</t>
-  </si>
-  <si>
     <t>categories/list-find-store/{id}</t>
   </si>
   <si>
@@ -186,6 +177,15 @@
   </si>
   <si>
     <t>Se muestra la creacion de categoria en la BD, al consumir el servicio POST. "categories/create"</t>
+  </si>
+  <si>
+    <t>Se debe mostrar los registros de categoria en la BD, al consumir el servicio GET. "categories/list"</t>
+  </si>
+  <si>
+    <t>Se muestra los registros de categoria en la BD, al consumir el servicio GET. "categories/list"</t>
+  </si>
+  <si>
+    <t>Validar informacion de registro de listado de  categoria</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEFDFD0-32E2-4D6C-ACEB-3E52EFAD76E5}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>14</v>
@@ -749,10 +749,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>14</v>
@@ -799,9 +799,7 @@
       <c r="K4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
@@ -839,17 +837,15 @@
         <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
@@ -887,13 +883,19 @@
         <v>23</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>15</v>
@@ -929,7 +931,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -971,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
